--- a/Modelo rúbrica proyecto primer trimestre.xlsx
+++ b/Modelo rúbrica proyecto primer trimestre.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Dificultad del código utilizado</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Apoyo en elementos CSS</t>
+  </si>
+  <si>
+    <t>Uso de mensajes de error y/o validación</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -236,7 +239,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87634B57-7278-482F-B68B-669C448F7457}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87634B57-7278-482F-B68B-669C448F7457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -282,7 +285,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -291,7 +294,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF7D10BD-08CB-47E3-913F-97EFEE17600B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7D10BD-08CB-47E3-913F-97EFEE17600B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -337,7 +340,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -346,7 +349,7 @@
         <xdr:cNvPr id="4" name="CuadroTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C29F387-D3C5-40A3-BA04-F90D2E9CF89A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C29F387-D3C5-40A3-BA04-F90D2E9CF89A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -392,7 +395,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -401,7 +404,7 @@
         <xdr:cNvPr id="5" name="CuadroTexto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74DC560F-50F6-4312-BE53-D43CD1A18FBE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DC560F-50F6-4312-BE53-D43CD1A18FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -709,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E16"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -762,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="4">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="1"/>
@@ -820,38 +823,48 @@
         <v>11</v>
       </c>
       <c r="C13" s="4">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>12</v>
+    <row r="15" spans="2:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="4">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C16" s="2">
-        <f>SUM(C6:C15)</f>
+    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="2">
+        <f>SUM(C6:C16)</f>
         <v>10</v>
       </c>
-      <c r="D16" s="9">
-        <f>SUM(D6:D15)</f>
+      <c r="D17" s="9">
+        <f>SUM(D6:D16)</f>
         <v>0</v>
       </c>
     </row>

--- a/Modelo rúbrica proyecto primer trimestre.xlsx
+++ b/Modelo rúbrica proyecto primer trimestre.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Dificultad del código utilizado</t>
   </si>
@@ -78,6 +78,17 @@
   </si>
   <si>
     <t>Uso de mensajes de error y/o validación</t>
+  </si>
+  <si>
+    <t>Proyecto básico y funcional requerido en clase</t>
+  </si>
+  <si>
+    <t>General  
+(35%)</t>
+  </si>
+  <si>
+    <t>Proyecto
+(65%)</t>
   </si>
 </sst>
 </file>
@@ -116,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +152,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -165,11 +182,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -181,9 +229,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -201,6 +246,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -228,9 +292,9 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -239,7 +303,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87634B57-7278-482F-B68B-669C448F7457}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87634B57-7278-482F-B68B-669C448F7457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -283,9 +347,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -294,7 +358,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7D10BD-08CB-47E3-913F-97EFEE17600B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF7D10BD-08CB-47E3-913F-97EFEE17600B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -338,9 +402,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -349,7 +413,7 @@
         <xdr:cNvPr id="4" name="CuadroTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C29F387-D3C5-40A3-BA04-F90D2E9CF89A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C29F387-D3C5-40A3-BA04-F90D2E9CF89A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -393,9 +457,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -404,7 +468,7 @@
         <xdr:cNvPr id="5" name="CuadroTexto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DC560F-50F6-4312-BE53-D43CD1A18FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74DC560F-50F6-4312-BE53-D43CD1A18FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -712,163 +776,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E17"/>
+  <dimension ref="B2:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.7265625" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
-    </row>
-    <row r="4" spans="2:5" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+    <row r="2" spans="2:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="12"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4">
+      <c r="D7" s="4">
         <v>1.75</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="11"/>
+      <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="D8" s="4">
         <v>1.5</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="11"/>
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="D9" s="4">
         <v>0.5</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="11" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D10" s="4">
         <v>0.25</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="10" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="11"/>
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11"/>
+      <c r="C12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="11"/>
+      <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D13" s="4">
         <v>1.5</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="11"/>
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D14" s="4">
         <v>1.5</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="11"/>
+      <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D15" s="4">
         <v>0.5</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="11"/>
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D16" s="4">
         <v>0.25</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="15"/>
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D17" s="4">
         <v>1.25</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="2">
-        <f>SUM(C6:C16)</f>
+      <c r="E17" s="7"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D18" s="2">
+        <f>SUM(D7:D17)</f>
         <v>10</v>
       </c>
-      <c r="D17" s="9">
-        <f>SUM(D6:D16)</f>
+      <c r="E18" s="8">
+        <f>SUM(E7:E17)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Modelo rúbrica proyecto primer trimestre.xlsx
+++ b/Modelo rúbrica proyecto primer trimestre.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\proyecto1-DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FP Majadahonda\DI\Cuaderno notas\Proyectos entregados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878235E7-E564-48F8-89DC-64AF388F0312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Dificultad del código utilizado</t>
   </si>
@@ -41,9 +44,6 @@
     <t>a) Mejora de funcionalidades</t>
   </si>
   <si>
-    <t>Uso de librerías externas</t>
-  </si>
-  <si>
     <t>Notas</t>
   </si>
   <si>
@@ -59,9 +59,6 @@
     <t>b) Uso adecuado del MVC</t>
   </si>
   <si>
-    <t>Uso opcional de dependencias</t>
-  </si>
-  <si>
     <t>Traspaso de datos</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>d) Uso de nuevos elementos en la BD o el Acceso a datos</t>
-  </si>
-  <si>
-    <t>Apoyo en elementos CSS</t>
   </si>
   <si>
     <t>Uso de mensajes de error y/o validación</t>
@@ -89,12 +83,15 @@
   <si>
     <t>Proyecto
 (65%)</t>
+  </si>
+  <si>
+    <t>Uso de librerías externas o de dependencias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -183,7 +180,35 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -192,11 +217,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -210,14 +237,16 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -244,26 +273,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -294,7 +320,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -303,7 +329,7 @@
         <xdr:cNvPr id="2" name="CuadroTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{87634B57-7278-482F-B68B-669C448F7457}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87634B57-7278-482F-B68B-669C448F7457}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -349,7 +375,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -358,7 +384,7 @@
         <xdr:cNvPr id="3" name="CuadroTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FF7D10BD-08CB-47E3-913F-97EFEE17600B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7D10BD-08CB-47E3-913F-97EFEE17600B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -404,7 +430,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -413,7 +439,7 @@
         <xdr:cNvPr id="4" name="CuadroTexto 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C29F387-D3C5-40A3-BA04-F90D2E9CF89A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C29F387-D3C5-40A3-BA04-F90D2E9CF89A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -459,7 +485,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -468,7 +494,7 @@
         <xdr:cNvPr id="5" name="CuadroTexto 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{74DC560F-50F6-4312-BE53-D43CD1A18FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DC560F-50F6-4312-BE53-D43CD1A18FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -775,46 +801,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="12"/>
+    <row r="2" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="13" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>3.5</v>
@@ -822,9 +848,9 @@
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="14" t="s">
-        <v>17</v>
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
@@ -833,10 +859,10 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>1.75</v>
@@ -844,8 +870,8 @@
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="11"/>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13"/>
       <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
@@ -855,51 +881,51 @@
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="11"/>
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
       <c r="C9" s="6" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="11"/>
-      <c r="C10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.25</v>
-      </c>
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="11"/>
-      <c r="C11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4"/>
+    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="11"/>
+    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
       <c r="C12" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="11"/>
-      <c r="C13" s="6" t="s">
+    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="4">
@@ -908,63 +934,41 @@
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="11"/>
-      <c r="C14" s="5" t="s">
+    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="11"/>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
+    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="11"/>
-      <c r="C16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1.25</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D18" s="2">
-        <f>SUM(D7:D17)</f>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="2">
+        <f>SUM(D7:D15)</f>
         <v>10</v>
       </c>
-      <c r="E18" s="8">
-        <f>SUM(E7:E17)</f>
+      <c r="E16" s="8">
+        <f>SUM(E7:E15)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="B6:B15"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Modelo rúbrica proyecto primer trimestre.xlsx
+++ b/Modelo rúbrica proyecto primer trimestre.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FP Majadahonda\DI\Cuaderno notas\Proyectos entregados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878235E7-E564-48F8-89DC-64AF388F0312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DFCCDC-CCAF-42D6-A598-3D9C5B376213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>d) Uso de nuevos elementos en la BD o el Acceso a datos</t>
   </si>
   <si>
-    <t>Uso de mensajes de error y/o validación</t>
-  </si>
-  <si>
     <t>Proyecto básico y funcional requerido en clase</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Uso de librerías externas o de dependencias</t>
+  </si>
+  <si>
+    <t>Uso de mensajes de error y/o validación adecuados</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,10 +837,10 @@
     </row>
     <row r="5" spans="2:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="4">
         <v>3.5</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
@@ -884,10 +884,10 @@
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
@@ -937,10 +937,10 @@
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>

--- a/Modelo rúbrica proyecto primer trimestre.xlsx
+++ b/Modelo rúbrica proyecto primer trimestre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FP Majadahonda\DI\Cuaderno notas\Proyectos entregados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\proyecto1-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DFCCDC-CCAF-42D6-A598-3D9C5B376213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E37F5-3FBA-411A-99E1-7A7D7EBE1F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Dificultad del código utilizado</t>
-  </si>
-  <si>
-    <t>a) Mejora de funcionalidades</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Notas</t>
   </si>
@@ -51,27 +45,6 @@
   </si>
   <si>
     <t>Ptos</t>
-  </si>
-  <si>
-    <t>Utilidad y mejora de las funcionalidades</t>
-  </si>
-  <si>
-    <t>b) Uso adecuado del MVC</t>
-  </si>
-  <si>
-    <t>Traspaso de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribución de las clases </t>
-  </si>
-  <si>
-    <t>c) Diseño y distribución de los elementos de la interfaz</t>
-  </si>
-  <si>
-    <t>d) Uso de nuevos elementos en la BD o el Acceso a datos</t>
-  </si>
-  <si>
-    <t>Proyecto básico y funcional requerido en clase</t>
   </si>
   <si>
     <t>General  
@@ -82,17 +55,141 @@
 (65%)</t>
   </si>
   <si>
-    <t>Uso de librerías externas o de dependencias</t>
-  </si>
-  <si>
     <t>Uso de mensajes de error y/o validación adecuados</t>
+  </si>
+  <si>
+    <t>Guía de estilo completa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diseño de interfaz usable </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b) Mejora de la </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>usabilidad</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Requerimientos básicos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>del proyecto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">b) Mejora de las </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>funcionalidades</t>
+    </r>
+  </si>
+  <si>
+    <t>Utilización de otros elementos (Jtable, iconos..)</t>
+  </si>
+  <si>
+    <t>Uso adecuado del MVC y traspaso de los datos</t>
+  </si>
+  <si>
+    <t>Lectura fichero de configuración de la BD</t>
+  </si>
+  <si>
+    <t>Documentación mínima del código y funciones</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">c) Mejora del </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>proyecto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conversión a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Maven</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y resolución de dependencias</t>
+    </r>
+  </si>
+  <si>
+    <t>Funcionamiento del ejecutable e instalador</t>
+  </si>
+  <si>
+    <t>d) Ejecutable e instalador</t>
+  </si>
+  <si>
+    <t>Mejoras del instalador y documentación básica</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +214,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -273,9 +378,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -291,6 +393,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -320,7 +425,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -375,7 +480,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -430,7 +535,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -485,7 +590,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -802,174 +907,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="11"/>
+    <row r="2" spans="2:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="4" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="10"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="4">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4"/>
+    <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="16"/>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.65</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.75</v>
-      </c>
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="7"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="12"/>
       <c r="C8" s="6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="12"/>
       <c r="C9" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4"/>
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
+    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="12"/>
+      <c r="C11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="7"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
+    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="12"/>
       <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
+    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="12"/>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="6" t="s">
+    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12"/>
+      <c r="C14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
+    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="12"/>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D15" s="4">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="2">
-        <f>SUM(D7:D15)</f>
+    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="12"/>
+      <c r="C16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="12"/>
+      <c r="C17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="12"/>
+      <c r="C18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="13"/>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D20" s="2">
+        <f>SUM(D8:D19)</f>
         <v>10</v>
       </c>
-      <c r="E16" s="8">
-        <f>SUM(E7:E15)</f>
+      <c r="E20" s="8">
+        <f>SUM(E8:E19)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B6:B15"/>
+  <mergeCells count="3">
+    <mergeCell ref="B7:B19"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Modelo rúbrica proyecto primer trimestre.xlsx
+++ b/Modelo rúbrica proyecto primer trimestre.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Documents\GitHub\proyecto1-DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081E37F5-3FBA-411A-99E1-7A7D7EBE1F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C547641-95ED-425B-B837-A61D8419E673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Notas</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Utilización de otros elementos (Jtable, iconos..)</t>
   </si>
   <si>
-    <t>Uso adecuado del MVC y traspaso de los datos</t>
-  </si>
-  <si>
     <t>Lectura fichero de configuración de la BD</t>
   </si>
   <si>
@@ -176,13 +173,13 @@
     </r>
   </si>
   <si>
-    <t>Funcionamiento del ejecutable e instalador</t>
-  </si>
-  <si>
     <t>d) Ejecutable e instalador</t>
   </si>
   <si>
-    <t>Mejoras del instalador y documentación básica</t>
+    <t>Uso adecuado del MVC y traspaso de datos entre clases</t>
+  </si>
+  <si>
+    <t>Funcionamiento del ejecutable y mejoras del instalador</t>
   </si>
 </sst>
 </file>
@@ -351,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -383,9 +380,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -425,7 +419,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -480,7 +474,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -535,7 +529,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -590,7 +584,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2187819</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -907,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F20"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -924,8 +918,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="4" spans="2:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B4" s="10"/>
@@ -954,9 +948,9 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4">
         <v>0.65</v>
@@ -1023,7 +1017,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="1"/>
@@ -1031,7 +1025,7 @@
     <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4">
         <v>0.5</v>
@@ -1042,21 +1036,19 @@
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1.5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="1"/>
@@ -1064,10 +1056,10 @@
     <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="12"/>
       <c r="C16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="1"/>
@@ -1075,7 +1067,7 @@
     <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="12"/>
       <c r="C17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="7"/>
@@ -1084,38 +1076,27 @@
     <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12"/>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="13"/>
-      <c r="C19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="D20" s="2">
-        <f>SUM(D8:D19)</f>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="D19" s="2">
+        <f>SUM(D8:D18)</f>
         <v>10</v>
       </c>
-      <c r="E20" s="8">
-        <f>SUM(E8:E19)</f>
+      <c r="E19" s="8">
+        <f>SUM(E8:E18)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B7:B19"/>
+    <mergeCell ref="B7:B18"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B5:B6"/>
   </mergeCells>
